--- a/storage/export/import_schedule_student.xlsx
+++ b/storage/export/import_schedule_student.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13960"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Code class</t>
   </si>
@@ -28,7 +28,16 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Start Time</t>
+    <t>Start Hour</t>
+  </si>
+  <si>
+    <t>Start Minute</t>
+  </si>
+  <si>
+    <t>End Hour</t>
+  </si>
+  <si>
+    <t>End Minute</t>
   </si>
   <si>
     <t>Week Day</t>
@@ -38,6 +47,15 @@
   </si>
   <si>
     <t>Student Email</t>
+  </si>
+  <si>
+    <t>Attendance Points</t>
+  </si>
+  <si>
+    <t>Mid Term Points</t>
+  </si>
+  <si>
+    <t>Last Term Points</t>
   </si>
   <si>
     <t>GI001</t>
@@ -59,12 +77,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="h:mm"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,7 +108,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,47 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,44 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +245,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,55 +371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,115 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,11 +439,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,48 +504,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,11 +530,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,142 +541,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,10 +690,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
@@ -1001,25 +1018,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="21.609375" customWidth="1"/>
-    <col min="3" max="3" width="26.0390625" customWidth="1"/>
-    <col min="4" max="4" width="14.96875" customWidth="1"/>
-    <col min="5" max="5" width="15.8828125" customWidth="1"/>
-    <col min="6" max="6" width="29.0390625" customWidth="1"/>
-    <col min="7" max="7" width="23.046875" customWidth="1"/>
-    <col min="8" max="8" width="25.78125" customWidth="1"/>
+    <col min="1" max="1" width="16.5390625" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="3" max="3" width="11.71875" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.7421875" customWidth="1"/>
+    <col min="8" max="8" width="18.7421875" customWidth="1"/>
+    <col min="9" max="9" width="17.0546875" customWidth="1"/>
+    <col min="10" max="10" width="26.4296875" customWidth="1"/>
+    <col min="11" max="11" width="14.5859375" customWidth="1"/>
+    <col min="12" max="12" width="16.40625" customWidth="1"/>
+    <col min="13" max="13" width="19.015625" customWidth="1"/>
+    <col min="14" max="14" width="17.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1055,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1044,36 +1067,72 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45139</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45291</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45139</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45291</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.572916666666667</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="N2">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="0009@gmail.com" tooltip="mailto:0009@gmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="0009@gmail.com" tooltip="mailto:0009@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
